--- a/CashFlow/DVN_cashflow.xlsx
+++ b/CashFlow/DVN_cashflow.xlsx
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-109000000.0</v>
+        <v>3724000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-55000000.0</v>
+        <v>3978000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-171000000.0</v>
+        <v>2985000000.0</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
